--- a/data/trans_bre/P24_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>4,95</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>127,15%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>127,13%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>59,1%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29,54%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,87%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 22,46</t>
+          <t>6,28; 22,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 14,29</t>
+          <t>-1,67; 13,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 9,03</t>
+          <t>-6,74; 9,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 10,02</t>
+          <t>-6,01; 10,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 14,72</t>
+          <t>-7,8; 11,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,63; 316,16</t>
+          <t>-5,71; 16,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 215,09</t>
+          <t>-13,48; 10,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 100,78</t>
+          <t>39,11; 283,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 149,22</t>
+          <t>-16,49; 220,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 123,16</t>
+          <t>-43,12; 120,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-36,54; 160,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-41,23; 133,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-25,96; 152,23</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-41,68; 55,06</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>119,96%</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>119,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>35,31%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>35,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>48,39%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>107,03%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 19,38</t>
+          <t>4,83; 19,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 22,32</t>
+          <t>1,04; 21,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 13,52</t>
+          <t>-2,02; 12,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 15,13</t>
+          <t>-4,15; 15,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 19,98</t>
+          <t>-14,36; 11,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,39; 280,78</t>
+          <t>-0,53; 19,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 245,64</t>
+          <t>8,08; 27,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 107,46</t>
+          <t>27,85; 270,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 102,14</t>
+          <t>-6,68; 251,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 134,84</t>
+          <t>-10,26; 102,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,19; 104,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-39,12; 53,03</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 139,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35,44; 240,79</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>14,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>16,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,36%</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58,3%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>54,02%</t>
+          <t>58,15%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64,15%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>81,66%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>53,95%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>46,88%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 19,78</t>
+          <t>4,95; 20,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 19,76</t>
+          <t>3,15; 18,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 16,85</t>
+          <t>3,79; 17,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 21,65</t>
+          <t>5,35; 21,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 21,38</t>
+          <t>7,57; 24,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,16; 153,73</t>
+          <t>3,73; 20,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 171,85</t>
+          <t>3,43; 21,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 120,54</t>
+          <t>19,23; 143,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 120,24</t>
+          <t>14,11; 145,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 111,36</t>
+          <t>13,21; 127,18</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 120,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>30,42; 159,12</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 105,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 92,77</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,51</t>
+          <t>22,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,29</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>23,91</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>13,71</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>102,03%</t>
+          <t>84,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>64,52%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>104,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>62,26%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>85,53%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>38,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 22,5</t>
+          <t>9,14; 22,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 19,64</t>
+          <t>4,45; 19,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 28,15</t>
+          <t>15,13; 29,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 25,37</t>
+          <t>10,05; 26,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 25,24</t>
+          <t>15,74; 31,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,58; 146,05</t>
+          <t>4,25; 24,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 112,49</t>
+          <t>3,0; 21,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,18; 162,84</t>
+          <t>39,49; 150,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,89; 104,53</t>
+          <t>16,06; 108,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 76,51</t>
+          <t>60,77; 162,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28,5; 106,5</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47,14; 131,53</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 75,75</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 65,39</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,93</t>
+          <t>22,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,59</t>
+          <t>23,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,09</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>13,33</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>24,12</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>45,21%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>103,32%</t>
+          <t>15,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>107,05%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>82,5%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39,13%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,14%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>54,76%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 18,87</t>
+          <t>1,91; 18,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 29,18</t>
+          <t>13,68; 30,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,39; 31,45</t>
+          <t>14,76; 30,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 21,14</t>
+          <t>4,51; 20,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 34,29</t>
+          <t>2,54; 22,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 104,91</t>
+          <t>14,31; 33,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,74; 186,22</t>
+          <t>5,34; 25,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,79; 135,21</t>
+          <t>7,04; 97,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,45; 71,78</t>
+          <t>55,81; 192,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,5; 91,44</t>
+          <t>45,0; 130,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 71,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 72,75</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>29,06; 92,24</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,68; 64,82</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,68</t>
+          <t>28,76</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,97</t>
+          <t>25,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,16</t>
+          <t>18,65</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>23,19</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>111,84%</t>
+          <t>27,3</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>128,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>84,28%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51,58%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51,45%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>61,26%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>70,01%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,62; 30,61</t>
+          <t>12,23; 30,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,08; 36,73</t>
+          <t>19,1; 37,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,62; 33,35</t>
+          <t>14,38; 34,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 26,43</t>
+          <t>7,25; 28,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 35,4</t>
+          <t>6,19; 29,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,87; 155,87</t>
+          <t>11,91; 36,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,01; 201,33</t>
+          <t>15,82; 38,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,24; 139,88</t>
+          <t>38,29; 162,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 90,15</t>
+          <t>65,06; 218,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,1; 111,73</t>
+          <t>37,8; 147,65</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 97,95</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 102,77</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>28,34; 116,09</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>35,47; 121,4</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,14</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,21</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>13,94</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>16,63</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>88,47%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>16,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>75,82%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>53,52%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>51,27%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>54,98%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>50,43%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,79</t>
+          <t>12,58; 18,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,47</t>
+          <t>12,87; 19,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,65; 18,56</t>
+          <t>12,22; 19,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,58; 16,9</t>
+          <t>9,55; 17,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 21,02</t>
+          <t>9,69; 18,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,62; 118,32</t>
+          <t>11,93; 21,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,42; 128,47</t>
+          <t>11,29; 20,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,23; 97,29</t>
+          <t>66,21; 121,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,27; 74,45</t>
+          <t>65,29; 128,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>37,28; 75,0</t>
+          <t>53,01; 99,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35,1; 75,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31,63; 75,85</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>35,78; 74,67</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>32,66; 68,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
